--- a/Flags_DHI.xlsx
+++ b/Flags_DHI.xlsx
@@ -19,103 +19,103 @@
     <t>DHI</t>
   </si>
   <si>
+    <t>RAW</t>
+  </si>
+  <si>
+    <t>Limites Físicos</t>
+  </si>
+  <si>
+    <t>Fisicamente Possível</t>
+  </si>
+  <si>
+    <t>Extremamente Raro</t>
+  </si>
+  <si>
+    <t>Angulo de elevação</t>
+  </si>
+  <si>
+    <t>Índice de transmissividade</t>
+  </si>
+  <si>
+    <t>Desvio padrão nulo</t>
+  </si>
+  <si>
+    <t>Consistência de parâmetros</t>
+  </si>
+  <si>
+    <t>Tracker Off</t>
+  </si>
+  <si>
+    <t>Comparacao entre variaveis DHI</t>
+  </si>
+  <si>
+    <t>Consistência</t>
+  </si>
+  <si>
+    <t>Persistência</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
     <t>Não disponível</t>
   </si>
   <si>
+    <t>20.0</t>
+  </si>
+  <si>
     <t>Não testado</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>23463.0</t>
+  </si>
+  <si>
+    <t>24074.0</t>
+  </si>
+  <si>
     <t>Anômalo</t>
   </si>
   <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
     <t>Suspeito</t>
   </si>
   <si>
+    <t>4031.0</t>
+  </si>
+  <si>
     <t>Bom</t>
   </si>
   <si>
-    <t>RAW</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>43180.0</t>
   </si>
   <si>
-    <t>Limites Físicos</t>
-  </si>
-  <si>
-    <t>Fisicamente Possível</t>
-  </si>
-  <si>
-    <t>108.0</t>
-  </si>
-  <si>
     <t>43072.0</t>
   </si>
   <si>
-    <t>Extremamente Raro</t>
-  </si>
-  <si>
-    <t>4031.0</t>
-  </si>
-  <si>
     <t>39041.0</t>
   </si>
   <si>
-    <t>Angulo de elevação</t>
-  </si>
-  <si>
-    <t>23463.0</t>
-  </si>
-  <si>
     <t>19609.0</t>
   </si>
   <si>
-    <t>Índice de transmissividade</t>
-  </si>
-  <si>
-    <t>112.0</t>
-  </si>
-  <si>
     <t>19605.0</t>
   </si>
   <si>
-    <t>Desvio padrão nulo</t>
-  </si>
-  <si>
-    <t>Consistência de parâmetros</t>
-  </si>
-  <si>
-    <t>Tracker Off</t>
-  </si>
-  <si>
-    <t>Comparacao entre variaveis DHI</t>
-  </si>
-  <si>
-    <t>24074.0</t>
-  </si>
-  <si>
     <t>18998.0</t>
   </si>
   <si>
-    <t>Consistência</t>
-  </si>
-  <si>
-    <t>114.0</t>
-  </si>
-  <si>
     <t>18992.0</t>
-  </si>
-  <si>
-    <t>Persistência</t>
-  </si>
-  <si>
-    <t>Resultado</t>
   </si>
 </sst>
 </file>
@@ -447,274 +447,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" t="s">
-        <v>31</v>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
